--- a/micro_mirror/board/micro_mirror3-bom-v1.xlsx
+++ b/micro_mirror/board/micro_mirror3-bom-v1.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24396" windowHeight="8808"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="micro_mirror3_bom" localSheetId="0">Sheet1!$A$1:$R$50</definedName>
+    <definedName name="micro_mirror3_bom" localSheetId="0">Sheet1!$A$1:$R$46</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="181">
   <si>
     <t>Qty</t>
   </si>
@@ -106,21 +106,9 @@
     <t>VERSION</t>
   </si>
   <si>
-    <t>LINEAR_LM324D</t>
-  </si>
-  <si>
-    <t>LINEAR_SO14</t>
-  </si>
-  <si>
-    <t>IC4</t>
-  </si>
-  <si>
     <t>OP AMP</t>
   </si>
   <si>
-    <t>LMV324</t>
-  </si>
-  <si>
     <t>M04LOCK</t>
   </si>
   <si>
@@ -271,12 +259,6 @@
     <t>INDUCTOR, American symbol</t>
   </si>
   <si>
-    <t>180pF</t>
-  </si>
-  <si>
-    <t>C17</t>
-  </si>
-  <si>
     <t>1k</t>
   </si>
   <si>
@@ -286,21 +268,9 @@
     <t>1nF 1k5V</t>
   </si>
   <si>
-    <t>C22, C29, C34</t>
-  </si>
-  <si>
-    <t>1nF-1k5V</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
     <t>2.2uF</t>
   </si>
   <si>
-    <t>C12, C13, C19</t>
-  </si>
-  <si>
     <t>2.2uH</t>
   </si>
   <si>
@@ -343,18 +313,9 @@
     <t>R14, R15, R39, R40</t>
   </si>
   <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>C18</t>
-  </si>
-  <si>
     <t>470pF</t>
   </si>
   <si>
-    <t>C5, C26, C31, C36</t>
-  </si>
-  <si>
     <t>R19</t>
   </si>
   <si>
@@ -460,9 +421,6 @@
     <t>U$4, U$11, U$14, U$17</t>
   </si>
   <si>
-    <t>LM324D</t>
-  </si>
-  <si>
     <t>IC5</t>
   </si>
   <si>
@@ -481,9 +439,6 @@
     <t>U$7</t>
   </si>
   <si>
-    <t>MBR0520</t>
-  </si>
-  <si>
     <t>DIODE-SOD123</t>
   </si>
   <si>
@@ -596,6 +551,54 @@
   </si>
   <si>
     <t>IR2213SPBF-ND</t>
+  </si>
+  <si>
+    <t>732-12286-1-ND</t>
+  </si>
+  <si>
+    <t>C3,C22, C29, C34</t>
+  </si>
+  <si>
+    <t>399-7078-1-ND</t>
+  </si>
+  <si>
+    <t>732-8097-1-ND</t>
+  </si>
+  <si>
+    <t>399-10494-1-ND</t>
+  </si>
+  <si>
+    <t>C12, C13, C18, C19</t>
+  </si>
+  <si>
+    <t>1276-3046-1-ND</t>
+  </si>
+  <si>
+    <t>C5, C26, C31, C36, C17</t>
+  </si>
+  <si>
+    <t>732-8100-1-ND</t>
+  </si>
+  <si>
+    <t>1276-2728-1-ND</t>
+  </si>
+  <si>
+    <t>LMV324D</t>
+  </si>
+  <si>
+    <t>497-13052-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BYG23T-M3/CT-ND </t>
+  </si>
+  <si>
+    <t>MBR0530T3GOSCT-ND</t>
+  </si>
+  <si>
+    <t>MBR0530</t>
+  </si>
+  <si>
+    <t>P10.0KFCT-ND</t>
   </si>
 </sst>
 </file>
@@ -661,7 +664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -670,6 +673,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -955,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,7 +985,7 @@
     <col min="12" max="12" width="11.6640625" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="11.77734375" style="2" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="24.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5546875" style="2" customWidth="1"/>
     <col min="16" max="16" width="8.88671875" style="2"/>
     <col min="17" max="17" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="8.88671875" style="2"/>
@@ -1023,7 +1032,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>13</v>
@@ -1040,276 +1049,316 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="F10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>47</v>
+      <c r="B14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1317,741 +1366,667 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="F17" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="B27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
         <v>4</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>8</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>4</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>36</v>
+      <c r="E32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="N33" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>9</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="C35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>1</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>1</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="F35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N35" s="7" t="s">
-        <v>175</v>
+        <v>32</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>1</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>9</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>176</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>1</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H38" s="6">
+        <v>43282</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>8</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>1</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42" s="6">
-        <v>43282</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>123</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
         <v>4</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>1</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>151</v>
+      <c r="B45" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1608592</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>1</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>136</v>
+      <c r="B46" s="1">
+        <v>-2516</v>
+      </c>
+      <c r="C46" s="1">
+        <v>-2516</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>1</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>1</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
-        <v>4</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1608592</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>1</v>
-      </c>
-      <c r="B50" s="1">
-        <v>-2516</v>
-      </c>
-      <c r="C50" s="1">
-        <v>-2516</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2059,5 +2034,6 @@
     <sortCondition ref="E2:E50"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/micro_mirror/board/micro_mirror3-bom-v1.xlsx
+++ b/micro_mirror/board/micro_mirror3-bom-v1.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="204">
   <si>
     <t>Qty</t>
   </si>
@@ -139,9 +139,6 @@
     <t>2X06</t>
   </si>
   <si>
-    <t>JP1</t>
-  </si>
-  <si>
     <t>0R</t>
   </si>
   <si>
@@ -346,18 +343,12 @@
     <t>Quad 2-input AND gate</t>
   </si>
   <si>
-    <t>74LV7014</t>
-  </si>
-  <si>
     <t>7407D</t>
   </si>
   <si>
     <t>IC1</t>
   </si>
   <si>
-    <t>Hex BUFFER, open collector high-voltage output</t>
-  </si>
-  <si>
     <t>BYG23T-M3</t>
   </si>
   <si>
@@ -463,9 +454,6 @@
     <t>PRT-00119</t>
   </si>
   <si>
-    <t>Q50-5C</t>
-  </si>
-  <si>
     <t>U$5</t>
   </si>
   <si>
@@ -599,6 +587,87 @@
   </si>
   <si>
     <t>P10.0KFCT-ND</t>
+  </si>
+  <si>
+    <t>609-3221-ND</t>
+  </si>
+  <si>
+    <t>JP1+JP2</t>
+  </si>
+  <si>
+    <t>PIN HEADER to be split</t>
+  </si>
+  <si>
+    <t>rg58 SMA cable assembly</t>
+  </si>
+  <si>
+    <t>ACX1583-ND</t>
+  </si>
+  <si>
+    <t>ED10535-ND</t>
+  </si>
+  <si>
+    <t>HGTD1N120BNS9ACT-ND</t>
+  </si>
+  <si>
+    <t>boost converter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  296-38771-1-ND </t>
+  </si>
+  <si>
+    <t>Emco Q10-5</t>
+  </si>
+  <si>
+    <t>Q10-5</t>
+  </si>
+  <si>
+    <t>1470-3325-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SRN6045-2R2YCT-ND </t>
+  </si>
+  <si>
+    <t>732-4628-1-ND</t>
+  </si>
+  <si>
+    <t>445-1957-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">507-1806-1-ND </t>
+  </si>
+  <si>
+    <t>296-18476-1-ND</t>
+  </si>
+  <si>
+    <t>buck converter 3.3V</t>
+  </si>
+  <si>
+    <t>buck adjustable</t>
+  </si>
+  <si>
+    <t>296-41758-1-ND</t>
+  </si>
+  <si>
+    <t>732-5317-ND</t>
+  </si>
+  <si>
+    <t>74HC7014</t>
+  </si>
+  <si>
+    <t>1727-6342-1-ND</t>
+  </si>
+  <si>
+    <t>Hex BUFFER, push-pull high-voltage output</t>
+  </si>
+  <si>
+    <t>296-1671-5-ND</t>
+  </si>
+  <si>
+    <t>296-26531-1-ND</t>
+  </si>
+  <si>
+    <t>CP-202A-ND</t>
   </si>
 </sst>
 </file>
@@ -664,7 +733,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -672,6 +741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -964,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1032,7 +1102,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>13</v>
@@ -1044,21 +1114,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1066,22 +1139,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1089,22 +1162,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1112,22 +1185,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1135,22 +1208,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1158,22 +1231,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1181,22 +1254,22 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1204,22 +1277,22 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1227,22 +1300,22 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1250,22 +1323,22 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1273,22 +1346,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="N12" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1296,22 +1369,22 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1319,46 +1392,46 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="O14" s="9"/>
+      <c r="N14" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1366,79 +1439,88 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="F18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>95</v>
+      <c r="N19" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1446,116 +1528,131 @@
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="N21" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="O21" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
+    </row>
+    <row r="22" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="N23" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="N24" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>66</v>
+      <c r="N25" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1563,22 +1660,22 @@
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1586,42 +1683,45 @@
         <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="F27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>32</v>
+      <c r="E28" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1629,22 +1729,22 @@
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="N29" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1652,22 +1752,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="E30" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1675,25 +1775,25 @@
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="F31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>160</v>
+        <v>31</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1701,22 +1801,22 @@
         <v>4</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="F32" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1724,42 +1824,45 @@
         <v>12</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="F33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>1</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>1</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>32</v>
+      <c r="E34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1767,22 +1870,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="F35" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1790,22 +1893,22 @@
         <v>9</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="F36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1813,22 +1916,22 @@
         <v>8</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="F37" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1836,136 +1939,164 @@
         <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H38" s="6">
         <v>43282</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
         <v>8</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="B39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="O39" s="10"/>
     </row>
     <row r="40" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>4</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>1</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="C42" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="N40" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>1</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>1</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="E42" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>1</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>1</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>150</v>
+      <c r="F43" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>1</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1973,67 +2104,81 @@
         <v>4</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="L45" s="3">
         <v>1608592</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>1</v>
-      </c>
-      <c r="B46" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>1</v>
+      </c>
+      <c r="B46" s="3">
         <v>-2516</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="3">
         <v>-2516</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="L46" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L46" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>80</v>
+      <c r="M46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E47" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:Q50">
     <sortCondition ref="E2:E50"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="N47" r:id="rId1" display="https://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=267023026&amp;uq=636676804942121489"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>